--- a/assets/excel/Rekap Presensi scanlog.xlsx
+++ b/assets/excel/Rekap Presensi scanlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>REKAP PRESENSI</t>
   </si>
@@ -42,6 +42,1089 @@
   </si>
   <si>
     <t>SN</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:58:51</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>06:58:51</t>
+  </si>
+  <si>
+    <t>2012.13.03.061</t>
+  </si>
+  <si>
+    <t>M Indriyanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:58:29</t>
+  </si>
+  <si>
+    <t>06:58:29</t>
+  </si>
+  <si>
+    <t>2012.12.01.003</t>
+  </si>
+  <si>
+    <t>Ahmad Hanif</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:57:38</t>
+  </si>
+  <si>
+    <t>06:57:38</t>
+  </si>
+  <si>
+    <t>2012.20.01.162</t>
+  </si>
+  <si>
+    <t>Muhammad Misbakhudin</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:57:33</t>
+  </si>
+  <si>
+    <t>06:57:33</t>
+  </si>
+  <si>
+    <t>Ariyanti Isnaii</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:57:23</t>
+  </si>
+  <si>
+    <t>06:57:23</t>
+  </si>
+  <si>
+    <t>Nasis Firman</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:57:21</t>
+  </si>
+  <si>
+    <t>06:57:21</t>
+  </si>
+  <si>
+    <t>Pradita Ferani</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:57:18</t>
+  </si>
+  <si>
+    <t>06:57:18</t>
+  </si>
+  <si>
+    <t>Fani Adiati</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:53</t>
+  </si>
+  <si>
+    <t>06:56:53</t>
+  </si>
+  <si>
+    <t>2012.15.11.096</t>
+  </si>
+  <si>
+    <t>Harnoko</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:34</t>
+  </si>
+  <si>
+    <t>06:56:34</t>
+  </si>
+  <si>
+    <t>Hanifah</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:27</t>
+  </si>
+  <si>
+    <t>06:56:27</t>
+  </si>
+  <si>
+    <t>2012.18.02.146</t>
+  </si>
+  <si>
+    <t>Fenty Anindita Nurnafiah</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:24</t>
+  </si>
+  <si>
+    <t>06:56:24</t>
+  </si>
+  <si>
+    <t>2012.18.05.148</t>
+  </si>
+  <si>
+    <t>Taufik Hidayat</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:22</t>
+  </si>
+  <si>
+    <t>06:56:22</t>
+  </si>
+  <si>
+    <t>2012.12.01.015</t>
+  </si>
+  <si>
+    <t>Rudi Riswanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:14</t>
+  </si>
+  <si>
+    <t>06:56:14</t>
+  </si>
+  <si>
+    <t>2012.13.11.073</t>
+  </si>
+  <si>
+    <t>Bagus Wahyono</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:11</t>
+  </si>
+  <si>
+    <t>06:56:11</t>
+  </si>
+  <si>
+    <t>2012.14.09.078</t>
+  </si>
+  <si>
+    <t>Nasikhin</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:04</t>
+  </si>
+  <si>
+    <t>06:56:04</t>
+  </si>
+  <si>
+    <t>2012.12.01.031</t>
+  </si>
+  <si>
+    <t>Arise Siswanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:56:00</t>
+  </si>
+  <si>
+    <t>06:56:00</t>
+  </si>
+  <si>
+    <t>Luki Meiramah</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:55:56</t>
+  </si>
+  <si>
+    <t>06:55:56</t>
+  </si>
+  <si>
+    <t>Dyah Ayu Pramesti</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:55:52</t>
+  </si>
+  <si>
+    <t>06:55:52</t>
+  </si>
+  <si>
+    <t>Jamiyati</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:55:48</t>
+  </si>
+  <si>
+    <t>06:55:48</t>
+  </si>
+  <si>
+    <t>2012.12.01.022</t>
+  </si>
+  <si>
+    <t>Eni Watiningsih</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:55:43</t>
+  </si>
+  <si>
+    <t>06:55:43</t>
+  </si>
+  <si>
+    <t>2012.12.07.045</t>
+  </si>
+  <si>
+    <t>Andri Bayu Suryatno</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:55:16</t>
+  </si>
+  <si>
+    <t>06:55:16</t>
+  </si>
+  <si>
+    <t>2012.20.01.161</t>
+  </si>
+  <si>
+    <t>Pardiman</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:55:00</t>
+  </si>
+  <si>
+    <t>06:55:00</t>
+  </si>
+  <si>
+    <t>2012.12.01.005</t>
+  </si>
+  <si>
+    <t>Tri Wardaningtyas</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:56</t>
+  </si>
+  <si>
+    <t>06:54:56</t>
+  </si>
+  <si>
+    <t>2012.13.11.071</t>
+  </si>
+  <si>
+    <t>Maghfiroh</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:42</t>
+  </si>
+  <si>
+    <t>06:54:42</t>
+  </si>
+  <si>
+    <t>2012.15.12.099</t>
+  </si>
+  <si>
+    <t>Gumawan Nurdhianto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:33</t>
+  </si>
+  <si>
+    <t>06:54:33</t>
+  </si>
+  <si>
+    <t>2012.12.01.024</t>
+  </si>
+  <si>
+    <t>Suharini</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:27</t>
+  </si>
+  <si>
+    <t>06:54:27</t>
+  </si>
+  <si>
+    <t>2012.12.01.010</t>
+  </si>
+  <si>
+    <t>Edy Rusmanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:25</t>
+  </si>
+  <si>
+    <t>06:54:25</t>
+  </si>
+  <si>
+    <t>BAGUS ISMAIL</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:21</t>
+  </si>
+  <si>
+    <t>06:54:21</t>
+  </si>
+  <si>
+    <t>2012.12.04.038</t>
+  </si>
+  <si>
+    <t>Ihsan Zulkarnain</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:15</t>
+  </si>
+  <si>
+    <t>06:54:15</t>
+  </si>
+  <si>
+    <t>2012.12.10.049</t>
+  </si>
+  <si>
+    <t>Sumarlan</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:11</t>
+  </si>
+  <si>
+    <t>06:54:11</t>
+  </si>
+  <si>
+    <t>2012.16.01.108</t>
+  </si>
+  <si>
+    <t>Rubiyanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:09</t>
+  </si>
+  <si>
+    <t>06:54:09</t>
+  </si>
+  <si>
+    <t>2012.14.09.079</t>
+  </si>
+  <si>
+    <t>Ferri Kurniawan</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:05</t>
+  </si>
+  <si>
+    <t>06:54:05</t>
+  </si>
+  <si>
+    <t>2012.15.05.087</t>
+  </si>
+  <si>
+    <t>Isnan Arif Pambudi</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:54:00</t>
+  </si>
+  <si>
+    <t>06:54:00</t>
+  </si>
+  <si>
+    <t>2012.12.01.025</t>
+  </si>
+  <si>
+    <t>Sofani</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:53:50</t>
+  </si>
+  <si>
+    <t>06:53:50</t>
+  </si>
+  <si>
+    <t>2012.18.02.145</t>
+  </si>
+  <si>
+    <t>Hanik Kastuni</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:53:33</t>
+  </si>
+  <si>
+    <t>06:53:33</t>
+  </si>
+  <si>
+    <t>2012.17.11.143</t>
+  </si>
+  <si>
+    <t>Buyung Candra Bahari</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:52:46</t>
+  </si>
+  <si>
+    <t>06:52:46</t>
+  </si>
+  <si>
+    <t>2012.12.05.043</t>
+  </si>
+  <si>
+    <t>Agung Frediyanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:52:16</t>
+  </si>
+  <si>
+    <t>06:52:16</t>
+  </si>
+  <si>
+    <t>2012.15.12.103</t>
+  </si>
+  <si>
+    <t>Harlan Buyung Nurdhianto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:52:07</t>
+  </si>
+  <si>
+    <t>06:52:07</t>
+  </si>
+  <si>
+    <t>Devi Wulandari</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:51:55</t>
+  </si>
+  <si>
+    <t>06:51:55</t>
+  </si>
+  <si>
+    <t>2012.12.01.004</t>
+  </si>
+  <si>
+    <t>Iwan Setiyawan</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:51:47</t>
+  </si>
+  <si>
+    <t>06:51:47</t>
+  </si>
+  <si>
+    <t>2012.17.01.123</t>
+  </si>
+  <si>
+    <t>M Irfan Meyanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:51:12</t>
+  </si>
+  <si>
+    <t>06:51:12</t>
+  </si>
+  <si>
+    <t>2012.13.09.065</t>
+  </si>
+  <si>
+    <t>Sinta Widayati</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:51:05</t>
+  </si>
+  <si>
+    <t>06:51:05</t>
+  </si>
+  <si>
+    <t>Rini Widyastuti</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:50:47</t>
+  </si>
+  <si>
+    <t>06:50:47</t>
+  </si>
+  <si>
+    <t>2012.12.04.037</t>
+  </si>
+  <si>
+    <t>Nur Muh Attabik</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:50:37</t>
+  </si>
+  <si>
+    <t>06:50:37</t>
+  </si>
+  <si>
+    <t>Lintang Fasha</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:50:25</t>
+  </si>
+  <si>
+    <t>06:50:25</t>
+  </si>
+  <si>
+    <t>Emiyati</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:50:19</t>
+  </si>
+  <si>
+    <t>06:50:19</t>
+  </si>
+  <si>
+    <t>2012.12.01.018</t>
+  </si>
+  <si>
+    <t>Heri Susanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:50:13</t>
+  </si>
+  <si>
+    <t>06:50:13</t>
+  </si>
+  <si>
+    <t>Sirullah Amand</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:50:08</t>
+  </si>
+  <si>
+    <t>06:50:08</t>
+  </si>
+  <si>
+    <t>2012.12.09.046</t>
+  </si>
+  <si>
+    <t>Sulis Wahyu Hendratiningsih</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:49:54</t>
+  </si>
+  <si>
+    <t>06:49:54</t>
+  </si>
+  <si>
+    <t>2012.13.10.068</t>
+  </si>
+  <si>
+    <t>Yudhi Dwi Arifianto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:49:29</t>
+  </si>
+  <si>
+    <t>06:49:29</t>
+  </si>
+  <si>
+    <t>Rouf Rozikin</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:49:24</t>
+  </si>
+  <si>
+    <t>06:49:24</t>
+  </si>
+  <si>
+    <t>Ery Safitri</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:49:17</t>
+  </si>
+  <si>
+    <t>06:49:17</t>
+  </si>
+  <si>
+    <t>2012.12.10.048</t>
+  </si>
+  <si>
+    <t>Margantoro Suryo Atmojo</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:49:12</t>
+  </si>
+  <si>
+    <t>06:49:12</t>
+  </si>
+  <si>
+    <t>2012.12.01.019</t>
+  </si>
+  <si>
+    <t>Bagus Widodo</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:49:07</t>
+  </si>
+  <si>
+    <t>06:49:07</t>
+  </si>
+  <si>
+    <t>2012.17.01.122</t>
+  </si>
+  <si>
+    <t>Maryadi</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:49:02</t>
+  </si>
+  <si>
+    <t>06:49:02</t>
+  </si>
+  <si>
+    <t>2012.12.01.011</t>
+  </si>
+  <si>
+    <t>Roni Slamet</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:58</t>
+  </si>
+  <si>
+    <t>06:48:58</t>
+  </si>
+  <si>
+    <t>2012.15.05.088</t>
+  </si>
+  <si>
+    <t>Mustaqim</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:52</t>
+  </si>
+  <si>
+    <t>06:48:52</t>
+  </si>
+  <si>
+    <t>2012.12.01.009</t>
+  </si>
+  <si>
+    <t>Samiran</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:49</t>
+  </si>
+  <si>
+    <t>06:48:49</t>
+  </si>
+  <si>
+    <t>2012.12.04.039</t>
+  </si>
+  <si>
+    <t>Heru Susmanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:44</t>
+  </si>
+  <si>
+    <t>06:48:44</t>
+  </si>
+  <si>
+    <t>Arimbi Himsa L</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:40</t>
+  </si>
+  <si>
+    <t>06:48:40</t>
+  </si>
+  <si>
+    <t>nabilla elma L</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:37</t>
+  </si>
+  <si>
+    <t>06:48:37</t>
+  </si>
+  <si>
+    <t>2012.12.04.035</t>
+  </si>
+  <si>
+    <t>Agus Tugiyono</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:32</t>
+  </si>
+  <si>
+    <t>06:48:32</t>
+  </si>
+  <si>
+    <t>2012.12.11.052</t>
+  </si>
+  <si>
+    <t>Marsudi</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:48:02</t>
+  </si>
+  <si>
+    <t>06:48:02</t>
+  </si>
+  <si>
+    <t>2012.12.01.013</t>
+  </si>
+  <si>
+    <t>Sukirman</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:47:44</t>
+  </si>
+  <si>
+    <t>06:47:44</t>
+  </si>
+  <si>
+    <t>2012.15.11.097</t>
+  </si>
+  <si>
+    <t>Nur Cholish</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:47:37</t>
+  </si>
+  <si>
+    <t>06:47:37</t>
+  </si>
+  <si>
+    <t>Eny Indriyati</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:47:23</t>
+  </si>
+  <si>
+    <t>06:47:23</t>
+  </si>
+  <si>
+    <t>2012.12.01.014</t>
+  </si>
+  <si>
+    <t>Bambang Gunartok</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:47:12</t>
+  </si>
+  <si>
+    <t>06:47:12</t>
+  </si>
+  <si>
+    <t>Ihsan Firdaus</t>
+  </si>
+  <si>
+    <t>Administrasi Personalia</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:46:23</t>
+  </si>
+  <si>
+    <t>06:46:23</t>
+  </si>
+  <si>
+    <t>M Yanuar Nurez</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:46:10</t>
+  </si>
+  <si>
+    <t>06:46:10</t>
+  </si>
+  <si>
+    <t>2012.20.01.163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doni Anggara Putra </t>
+  </si>
+  <si>
+    <t>2022-06-20 06:45:58</t>
+  </si>
+  <si>
+    <t>06:45:58</t>
+  </si>
+  <si>
+    <t>Tri Mulatningsih</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:45:52</t>
+  </si>
+  <si>
+    <t>06:45:52</t>
+  </si>
+  <si>
+    <t>Septian Dhaniar</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:44:24</t>
+  </si>
+  <si>
+    <t>06:44:24</t>
+  </si>
+  <si>
+    <t>2012.12.11.054</t>
+  </si>
+  <si>
+    <t>Andika Barun</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:44:18</t>
+  </si>
+  <si>
+    <t>06:44:18</t>
+  </si>
+  <si>
+    <t>2012.12.01.017</t>
+  </si>
+  <si>
+    <t>Muryanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:44:13</t>
+  </si>
+  <si>
+    <t>06:44:13</t>
+  </si>
+  <si>
+    <t>2012.12.01.021</t>
+  </si>
+  <si>
+    <t>Aristiyo Budi</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:44:00</t>
+  </si>
+  <si>
+    <t>06:44:00</t>
+  </si>
+  <si>
+    <t>2012.14.09.080</t>
+  </si>
+  <si>
+    <t>Surojo</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:43:31</t>
+  </si>
+  <si>
+    <t>06:43:31</t>
+  </si>
+  <si>
+    <t>2012.15.12.106</t>
+  </si>
+  <si>
+    <t>Reza Ahimsa Hendrianno</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:43:21</t>
+  </si>
+  <si>
+    <t>06:43:21</t>
+  </si>
+  <si>
+    <t>2012.12.02.032</t>
+  </si>
+  <si>
+    <t>Heru Setiawan</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:42:50</t>
+  </si>
+  <si>
+    <t>06:42:50</t>
+  </si>
+  <si>
+    <t>2012.15.03.086</t>
+  </si>
+  <si>
+    <t>Nur Endah Setyawati</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:41:48</t>
+  </si>
+  <si>
+    <t>06:41:48</t>
+  </si>
+  <si>
+    <t>2012.12.01.016</t>
+  </si>
+  <si>
+    <t>Maryono</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:40:45</t>
+  </si>
+  <si>
+    <t>06:40:45</t>
+  </si>
+  <si>
+    <t>2012.17.09.137</t>
+  </si>
+  <si>
+    <t>Gustam Barnafi</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:39:53</t>
+  </si>
+  <si>
+    <t>06:39:53</t>
+  </si>
+  <si>
+    <t>2012.16.01.107</t>
+  </si>
+  <si>
+    <t>Sarjono</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:33:30</t>
+  </si>
+  <si>
+    <t>06:33:30</t>
+  </si>
+  <si>
+    <t>2012.17.08.125</t>
+  </si>
+  <si>
+    <t>Hasnan Habib Al Fajar</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:30:50</t>
+  </si>
+  <si>
+    <t>06:30:50</t>
+  </si>
+  <si>
+    <t>2012.13.09.066</t>
+  </si>
+  <si>
+    <t>Intan Nurlita Anisa</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:24:17</t>
+  </si>
+  <si>
+    <t>06:24:17</t>
+  </si>
+  <si>
+    <t>2012.17.09.127</t>
+  </si>
+  <si>
+    <t>Haryanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:23:05</t>
+  </si>
+  <si>
+    <t>06:23:05</t>
+  </si>
+  <si>
+    <t>2012.12.11.051</t>
+  </si>
+  <si>
+    <t>Jumadi</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:19:37</t>
+  </si>
+  <si>
+    <t>06:19:37</t>
+  </si>
+  <si>
+    <t>Nuryanto</t>
+  </si>
+  <si>
+    <t>2022-06-20 06:13:25</t>
+  </si>
+  <si>
+    <t>06:13:25</t>
+  </si>
+  <si>
+    <t>2012.12.07.044</t>
+  </si>
+  <si>
+    <t>Dedy Rahmad Bahtiyar</t>
+  </si>
+  <si>
+    <t>2022-06-20 05:49:06</t>
+  </si>
+  <si>
+    <t>05:49:06</t>
+  </si>
+  <si>
+    <t>2012.20.02.000</t>
+  </si>
+  <si>
+    <t>Hermawan</t>
+  </si>
+  <si>
+    <t>2022-06-19 22:00:35</t>
+  </si>
+  <si>
+    <t>2022-06-19</t>
+  </si>
+  <si>
+    <t>22:00:35</t>
+  </si>
+  <si>
+    <t>2012.12.01.008</t>
+  </si>
+  <si>
+    <t>Tri Bekti Rianto</t>
+  </si>
+  <si>
+    <t>2022-06-19 22:00:21</t>
+  </si>
+  <si>
+    <t>22:00:21</t>
+  </si>
+  <si>
+    <t>2012.19.01.156</t>
+  </si>
+  <si>
+    <t>Buchori</t>
+  </si>
+  <si>
+    <t>2022-06-19 22:00:07</t>
+  </si>
+  <si>
+    <t>22:00:07</t>
+  </si>
+  <si>
+    <t>2012.13.02.058</t>
+  </si>
+  <si>
+    <t>Ngatiman</t>
+  </si>
+  <si>
+    <t>2022-06-19 18:03:33</t>
+  </si>
+  <si>
+    <t>18:03:33</t>
+  </si>
+  <si>
+    <t>2022-06-19 17:53:59</t>
+  </si>
+  <si>
+    <t>17:53:59</t>
+  </si>
+  <si>
+    <t>2022-06-19 15:15:26</t>
+  </si>
+  <si>
+    <t>15:15:26</t>
+  </si>
+  <si>
+    <t>2022-06-19 15:06:22</t>
+  </si>
+  <si>
+    <t>15:06:22</t>
+  </si>
+  <si>
+    <t>2022-06-19 15:00:09</t>
+  </si>
+  <si>
+    <t>15:00:09</t>
+  </si>
+  <si>
+    <t>2022-06-19 15:00:01</t>
+  </si>
+  <si>
+    <t>15:00:01</t>
+  </si>
+  <si>
+    <t>2022-06-19 14:55:01</t>
+  </si>
+  <si>
+    <t>14:55:01</t>
+  </si>
+  <si>
+    <t>2022-06-19 14:51:17</t>
+  </si>
+  <si>
+    <t>14:51:17</t>
+  </si>
+  <si>
+    <t>2022-06-19 11:34:40</t>
+  </si>
+  <si>
+    <t>11:34:40</t>
   </si>
 </sst>
 </file>
@@ -377,7 +1460,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,12 +1468,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -414,6 +1497,2676 @@
       </c>
       <c r="H3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5"/>
+      <c r="I5">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6"/>
+      <c r="I6">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>131</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>135</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9"/>
+      <c r="I9">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>134</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11"/>
+      <c r="I11">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>2008</v>
+      </c>
+      <c r="F12">
+        <v>2008</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15"/>
+      <c r="I15">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16"/>
+      <c r="I16">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H17"/>
+      <c r="I17">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19">
+        <v>118</v>
+      </c>
+      <c r="F19"/>
+      <c r="G19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>2004</v>
+      </c>
+      <c r="F20">
+        <v>2004</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <v>2000</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22"/>
+      <c r="I22">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23">
+        <v>35</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23"/>
+      <c r="I23">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24"/>
+      <c r="I24">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25"/>
+      <c r="I25">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" t="s">
+        <v>93</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27">
+        <v>63</v>
+      </c>
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" t="s">
+        <v>105</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30">
+        <v>1002</v>
+      </c>
+      <c r="F30">
+        <v>1002</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s">
+        <v>115</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34">
+        <v>54</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35">
+        <v>58</v>
+      </c>
+      <c r="F35" t="s">
+        <v>127</v>
+      </c>
+      <c r="G35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E37">
+        <v>87</v>
+      </c>
+      <c r="F37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G37" t="s">
+        <v>136</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38">
+        <v>85</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="G38" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>146</v>
+      </c>
+      <c r="E40">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" t="s">
+        <v>148</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41">
+        <v>2010</v>
+      </c>
+      <c r="F41">
+        <v>2010</v>
+      </c>
+      <c r="G41" t="s">
+        <v>151</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>154</v>
+      </c>
+      <c r="G42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43">
+        <v>76</v>
+      </c>
+      <c r="F43" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" t="s">
+        <v>159</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>161</v>
+      </c>
+      <c r="E44">
+        <v>47</v>
+      </c>
+      <c r="F44" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" t="s">
+        <v>163</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45">
+        <v>2002</v>
+      </c>
+      <c r="F45">
+        <v>2002</v>
+      </c>
+      <c r="G45" t="s">
+        <v>166</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" t="s">
+        <v>170</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47">
+        <v>132</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>173</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48">
+        <v>2007</v>
+      </c>
+      <c r="F48">
+        <v>2007</v>
+      </c>
+      <c r="G48" t="s">
+        <v>176</v>
+      </c>
+      <c r="H48"/>
+      <c r="I48">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>177</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" t="s">
+        <v>180</v>
+      </c>
+      <c r="H49"/>
+      <c r="I49">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+      <c r="E50">
+        <v>125</v>
+      </c>
+      <c r="F50"/>
+      <c r="G50" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>185</v>
+      </c>
+      <c r="E51">
+        <v>36</v>
+      </c>
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" t="s">
+        <v>187</v>
+      </c>
+      <c r="H51"/>
+      <c r="I51">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52">
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
+        <v>190</v>
+      </c>
+      <c r="G52" t="s">
+        <v>191</v>
+      </c>
+      <c r="H52"/>
+      <c r="I52">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>193</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>194</v>
+      </c>
+      <c r="H53"/>
+      <c r="I53">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54">
+        <v>2003</v>
+      </c>
+      <c r="F54">
+        <v>2003</v>
+      </c>
+      <c r="G54" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>198</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>199</v>
+      </c>
+      <c r="E55">
+        <v>37</v>
+      </c>
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
+        <v>201</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>203</v>
+      </c>
+      <c r="E56">
+        <v>17</v>
+      </c>
+      <c r="F56" t="s">
+        <v>204</v>
+      </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>207</v>
+      </c>
+      <c r="E57">
+        <v>75</v>
+      </c>
+      <c r="F57" t="s">
+        <v>208</v>
+      </c>
+      <c r="G57" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>211</v>
+      </c>
+      <c r="E58">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>212</v>
+      </c>
+      <c r="G58" t="s">
+        <v>213</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>215</v>
+      </c>
+      <c r="E59">
+        <v>59</v>
+      </c>
+      <c r="F59" t="s">
+        <v>216</v>
+      </c>
+      <c r="G59" t="s">
+        <v>217</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>219</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
+        <v>220</v>
+      </c>
+      <c r="G60" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G61" t="s">
+        <v>225</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>226</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>227</v>
+      </c>
+      <c r="E62">
+        <v>117</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>228</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>229</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>230</v>
+      </c>
+      <c r="E63">
+        <v>119</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>231</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>232</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>233</v>
+      </c>
+      <c r="E64">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>234</v>
+      </c>
+      <c r="G64" t="s">
+        <v>235</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s">
+        <v>238</v>
+      </c>
+      <c r="G65" t="s">
+        <v>239</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>242</v>
+      </c>
+      <c r="G66" t="s">
+        <v>243</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>245</v>
+      </c>
+      <c r="E67">
+        <v>62</v>
+      </c>
+      <c r="F67" t="s">
+        <v>246</v>
+      </c>
+      <c r="G67" t="s">
+        <v>247</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>248</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>249</v>
+      </c>
+      <c r="E68">
+        <v>2009</v>
+      </c>
+      <c r="F68">
+        <v>2009</v>
+      </c>
+      <c r="G68" t="s">
+        <v>250</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>251</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>256</v>
+      </c>
+      <c r="E70">
+        <v>116</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70" t="s">
+        <v>257</v>
+      </c>
+      <c r="H70" t="s">
+        <v>258</v>
+      </c>
+      <c r="I70">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>260</v>
+      </c>
+      <c r="E71">
+        <v>121</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>261</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>263</v>
+      </c>
+      <c r="E72">
+        <v>98</v>
+      </c>
+      <c r="F72" t="s">
+        <v>264</v>
+      </c>
+      <c r="G72" t="s">
+        <v>265</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+      <c r="E73">
+        <v>2005</v>
+      </c>
+      <c r="F73">
+        <v>2005</v>
+      </c>
+      <c r="G73" t="s">
+        <v>268</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>270</v>
+      </c>
+      <c r="E74">
+        <v>129</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>271</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>273</v>
+      </c>
+      <c r="E75">
+        <v>42</v>
+      </c>
+      <c r="F75" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" t="s">
+        <v>275</v>
+      </c>
+      <c r="H75"/>
+      <c r="I75">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>277</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" t="s">
+        <v>279</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>281</v>
+      </c>
+      <c r="E77">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
+        <v>282</v>
+      </c>
+      <c r="G77" t="s">
+        <v>283</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78">
+        <v>55</v>
+      </c>
+      <c r="F78" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" t="s">
+        <v>287</v>
+      </c>
+      <c r="H78"/>
+      <c r="I78">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>289</v>
+      </c>
+      <c r="E79">
+        <v>67</v>
+      </c>
+      <c r="F79" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" t="s">
+        <v>291</v>
+      </c>
+      <c r="H79"/>
+      <c r="I79">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>294</v>
+      </c>
+      <c r="G80" t="s">
+        <v>295</v>
+      </c>
+      <c r="H80"/>
+      <c r="I80">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81">
+        <v>57</v>
+      </c>
+      <c r="F81" t="s">
+        <v>298</v>
+      </c>
+      <c r="G81" t="s">
+        <v>299</v>
+      </c>
+      <c r="H81"/>
+      <c r="I81">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>301</v>
+      </c>
+      <c r="E82">
+        <v>14</v>
+      </c>
+      <c r="F82" t="s">
+        <v>302</v>
+      </c>
+      <c r="G82" t="s">
+        <v>303</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>305</v>
+      </c>
+      <c r="E83">
+        <v>82</v>
+      </c>
+      <c r="F83" t="s">
+        <v>306</v>
+      </c>
+      <c r="G83" t="s">
+        <v>307</v>
+      </c>
+      <c r="H83"/>
+      <c r="I83">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>309</v>
+      </c>
+      <c r="E84">
+        <v>68</v>
+      </c>
+      <c r="F84" t="s">
+        <v>310</v>
+      </c>
+      <c r="G84" t="s">
+        <v>311</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>313</v>
+      </c>
+      <c r="E85">
+        <v>77</v>
+      </c>
+      <c r="F85" t="s">
+        <v>314</v>
+      </c>
+      <c r="G85" t="s">
+        <v>315</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>317</v>
+      </c>
+      <c r="E86">
+        <v>48</v>
+      </c>
+      <c r="F86" t="s">
+        <v>318</v>
+      </c>
+      <c r="G86" t="s">
+        <v>319</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>321</v>
+      </c>
+      <c r="E87">
+        <v>78</v>
+      </c>
+      <c r="F87" t="s">
+        <v>322</v>
+      </c>
+      <c r="G87" t="s">
+        <v>323</v>
+      </c>
+      <c r="H87"/>
+      <c r="I87">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>325</v>
+      </c>
+      <c r="E88">
+        <v>40</v>
+      </c>
+      <c r="F88" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" t="s">
+        <v>327</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>329</v>
+      </c>
+      <c r="E89">
+        <v>126</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" t="s">
+        <v>330</v>
+      </c>
+      <c r="H89"/>
+      <c r="I89">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>332</v>
+      </c>
+      <c r="E90">
+        <v>34</v>
+      </c>
+      <c r="F90" t="s">
+        <v>333</v>
+      </c>
+      <c r="G90" t="s">
+        <v>334</v>
+      </c>
+      <c r="H90"/>
+      <c r="I90">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>336</v>
+      </c>
+      <c r="E91">
+        <v>99</v>
+      </c>
+      <c r="F91" t="s">
+        <v>337</v>
+      </c>
+      <c r="G91" t="s">
+        <v>338</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" t="s">
+        <v>340</v>
+      </c>
+      <c r="D92" t="s">
+        <v>341</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92" t="s">
+        <v>342</v>
+      </c>
+      <c r="G92" t="s">
+        <v>343</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93">
+        <v>93</v>
+      </c>
+      <c r="F93" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93" t="s">
+        <v>347</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>340</v>
+      </c>
+      <c r="D94" t="s">
+        <v>349</v>
+      </c>
+      <c r="E94">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>350</v>
+      </c>
+      <c r="G94" t="s">
+        <v>351</v>
+      </c>
+      <c r="H94"/>
+      <c r="I94">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" t="s">
+        <v>340</v>
+      </c>
+      <c r="D95" t="s">
+        <v>353</v>
+      </c>
+      <c r="E95">
+        <v>99</v>
+      </c>
+      <c r="F95" t="s">
+        <v>337</v>
+      </c>
+      <c r="G95" t="s">
+        <v>338</v>
+      </c>
+      <c r="H95"/>
+      <c r="I95">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" t="s">
+        <v>340</v>
+      </c>
+      <c r="D96" t="s">
+        <v>355</v>
+      </c>
+      <c r="E96">
+        <v>126</v>
+      </c>
+      <c r="F96"/>
+      <c r="G96" t="s">
+        <v>330</v>
+      </c>
+      <c r="H96"/>
+      <c r="I96">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" t="s">
+        <v>340</v>
+      </c>
+      <c r="D97" t="s">
+        <v>357</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G97" t="s">
+        <v>343</v>
+      </c>
+      <c r="H97"/>
+      <c r="I97">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>340</v>
+      </c>
+      <c r="D98" t="s">
+        <v>359</v>
+      </c>
+      <c r="E98">
+        <v>9</v>
+      </c>
+      <c r="F98" t="s">
+        <v>212</v>
+      </c>
+      <c r="G98" t="s">
+        <v>213</v>
+      </c>
+      <c r="H98"/>
+      <c r="I98">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>360</v>
+      </c>
+      <c r="C99" t="s">
+        <v>340</v>
+      </c>
+      <c r="D99" t="s">
+        <v>361</v>
+      </c>
+      <c r="E99">
+        <v>100</v>
+      </c>
+      <c r="F99"/>
+      <c r="G99" t="s">
+        <v>194</v>
+      </c>
+      <c r="H99"/>
+      <c r="I99">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100" t="s">
+        <v>362</v>
+      </c>
+      <c r="C100" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" t="s">
+        <v>363</v>
+      </c>
+      <c r="E100">
+        <v>26</v>
+      </c>
+      <c r="F100" t="s">
+        <v>234</v>
+      </c>
+      <c r="G100" t="s">
+        <v>235</v>
+      </c>
+      <c r="H100"/>
+      <c r="I100">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>340</v>
+      </c>
+      <c r="D101" t="s">
+        <v>365</v>
+      </c>
+      <c r="E101">
+        <v>93</v>
+      </c>
+      <c r="F101" t="s">
+        <v>346</v>
+      </c>
+      <c r="G101" t="s">
+        <v>347</v>
+      </c>
+      <c r="H101"/>
+      <c r="I101">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102" t="s">
+        <v>366</v>
+      </c>
+      <c r="C102" t="s">
+        <v>340</v>
+      </c>
+      <c r="D102" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102">
+        <v>43</v>
+      </c>
+      <c r="F102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G102" t="s">
+        <v>351</v>
+      </c>
+      <c r="H102"/>
+      <c r="I102">
+        <v>66595018200980</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103" t="s">
+        <v>368</v>
+      </c>
+      <c r="C103" t="s">
+        <v>340</v>
+      </c>
+      <c r="D103" t="s">
+        <v>369</v>
+      </c>
+      <c r="E103">
+        <v>68</v>
+      </c>
+      <c r="F103" t="s">
+        <v>310</v>
+      </c>
+      <c r="G103" t="s">
+        <v>311</v>
+      </c>
+      <c r="H103"/>
+      <c r="I103">
+        <v>66595018200980</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Rekap Presensi scanlog.xlsx
+++ b/assets/excel/Rekap Presensi scanlog.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
   <si>
     <t>REKAP PRESENSI</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t>Tanggal Scan</t>
@@ -1498,28 +1501,28 @@
       <c r="H3" t="s">
         <v>8</v>
       </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4">
-        <v>1</v>
-      </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4"/>
       <c r="I4">
@@ -1527,26 +1530,23 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5">
-        <v>2</v>
-      </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5"/>
       <c r="I5">
@@ -1554,26 +1554,23 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6">
-        <v>3</v>
-      </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6"/>
       <c r="I6">
@@ -1581,24 +1578,21 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7">
-        <v>4</v>
-      </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>131</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7"/>
       <c r="I7">
@@ -1606,24 +1600,21 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8">
-        <v>5</v>
-      </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>128</v>
       </c>
       <c r="F8"/>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8"/>
       <c r="I8">
@@ -1631,24 +1622,21 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9">
-        <v>6</v>
-      </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>135</v>
       </c>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9"/>
       <c r="I9">
@@ -1656,24 +1644,21 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10">
-        <v>7</v>
-      </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>134</v>
       </c>
       <c r="F10"/>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H10"/>
       <c r="I10">
@@ -1681,26 +1666,23 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11">
-        <v>8</v>
-      </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H11"/>
       <c r="I11">
@@ -1708,17 +1690,14 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12">
-        <v>9</v>
-      </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>2008</v>
@@ -1727,7 +1706,7 @@
         <v>2008</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H12"/>
       <c r="I12">
@@ -1735,26 +1714,23 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13">
-        <v>10</v>
-      </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13">
         <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13"/>
       <c r="I13">
@@ -1762,26 +1738,23 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14">
-        <v>11</v>
-      </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E14">
         <v>89</v>
       </c>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H14"/>
       <c r="I14">
@@ -1789,26 +1762,23 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15">
-        <v>12</v>
-      </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H15"/>
       <c r="I15">
@@ -1816,26 +1786,23 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16">
-        <v>13</v>
-      </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E16">
         <v>51</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H16"/>
       <c r="I16">
@@ -1843,26 +1810,23 @@
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17">
-        <v>14</v>
-      </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17"/>
       <c r="I17">
@@ -1870,26 +1834,23 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18">
-        <v>15</v>
-      </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18">
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H18"/>
       <c r="I18">
@@ -1897,24 +1858,21 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19">
-        <v>16</v>
-      </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>118</v>
       </c>
       <c r="F19"/>
       <c r="G19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H19"/>
       <c r="I19">
@@ -1922,17 +1880,14 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20">
-        <v>17</v>
-      </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20">
         <v>2004</v>
@@ -1941,7 +1896,7 @@
         <v>2004</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H20"/>
       <c r="I20">
@@ -1949,17 +1904,14 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21">
-        <v>18</v>
-      </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>2000</v>
@@ -1968,7 +1920,7 @@
         <v>2000</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H21"/>
       <c r="I21">
@@ -1976,26 +1928,23 @@
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22">
-        <v>19</v>
-      </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E22">
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H22"/>
       <c r="I22">
@@ -2003,26 +1952,23 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23">
-        <v>20</v>
-      </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H23"/>
       <c r="I23">
@@ -2030,26 +1976,23 @@
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24">
-        <v>21</v>
-      </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24">
         <v>96</v>
       </c>
       <c r="F24" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24"/>
       <c r="I24">
@@ -2057,26 +2000,23 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25">
-        <v>22</v>
-      </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25"/>
       <c r="I25">
@@ -2084,26 +2024,23 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26">
-        <v>23</v>
-      </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26">
         <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26"/>
       <c r="I26">
@@ -2111,26 +2048,23 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27">
-        <v>24</v>
-      </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27">
         <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H27"/>
       <c r="I27">
@@ -2138,26 +2072,23 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28">
-        <v>25</v>
-      </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E28">
         <v>20</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H28"/>
       <c r="I28">
@@ -2165,26 +2096,23 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29">
-        <v>26</v>
-      </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H29"/>
       <c r="I29">
@@ -2192,17 +2120,14 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30">
-        <v>27</v>
-      </c>
       <c r="B30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30">
         <v>1002</v>
@@ -2211,7 +2136,7 @@
         <v>1002</v>
       </c>
       <c r="G30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30"/>
       <c r="I30">
@@ -2219,26 +2144,23 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31">
-        <v>28</v>
-      </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31">
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H31"/>
       <c r="I31">
@@ -2246,26 +2168,23 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32">
-        <v>29</v>
-      </c>
       <c r="B32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H32"/>
       <c r="I32">
@@ -2273,26 +2192,23 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33">
-        <v>30</v>
-      </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>69</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H33"/>
       <c r="I33">
@@ -2300,26 +2216,23 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34">
-        <v>31</v>
-      </c>
       <c r="B34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E34">
         <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H34"/>
       <c r="I34">
@@ -2327,26 +2240,23 @@
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35">
-        <v>32</v>
-      </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E35">
         <v>58</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H35"/>
       <c r="I35">
@@ -2354,26 +2264,23 @@
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36">
-        <v>33</v>
-      </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E36">
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G36" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H36"/>
       <c r="I36">
@@ -2381,26 +2288,23 @@
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37">
-        <v>34</v>
-      </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E37">
         <v>87</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G37" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H37"/>
       <c r="I37">
@@ -2408,26 +2312,23 @@
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38">
-        <v>35</v>
-      </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E38">
         <v>85</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H38"/>
       <c r="I38">
@@ -2435,26 +2336,23 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39">
-        <v>36</v>
-      </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E39">
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H39"/>
       <c r="I39">
@@ -2462,26 +2360,23 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40">
-        <v>37</v>
-      </c>
       <c r="B40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E40">
         <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H40"/>
       <c r="I40">
@@ -2489,17 +2384,14 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41">
-        <v>38</v>
-      </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E41">
         <v>2010</v>
@@ -2508,7 +2400,7 @@
         <v>2010</v>
       </c>
       <c r="G41" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H41"/>
       <c r="I41">
@@ -2516,26 +2408,23 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42">
-        <v>39</v>
-      </c>
       <c r="B42" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42">
         <v>3</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H42"/>
       <c r="I42">
@@ -2543,26 +2432,23 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43">
-        <v>40</v>
-      </c>
       <c r="B43" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E43">
         <v>76</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H43"/>
       <c r="I43">
@@ -2570,26 +2456,23 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44">
-        <v>41</v>
-      </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D44" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E44">
         <v>47</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H44"/>
       <c r="I44">
@@ -2597,17 +2480,14 @@
       </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45">
-        <v>42</v>
-      </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E45">
         <v>2002</v>
@@ -2616,7 +2496,7 @@
         <v>2002</v>
       </c>
       <c r="G45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H45"/>
       <c r="I45">
@@ -2624,26 +2504,23 @@
       </c>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46">
-        <v>43</v>
-      </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E46">
         <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H46"/>
       <c r="I46">
@@ -2651,24 +2528,21 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47">
-        <v>44</v>
-      </c>
       <c r="B47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E47">
         <v>132</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H47"/>
       <c r="I47">
@@ -2676,17 +2550,14 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48">
-        <v>45</v>
-      </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E48">
         <v>2007</v>
@@ -2695,7 +2566,7 @@
         <v>2007</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H48"/>
       <c r="I48">
@@ -2703,26 +2574,23 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49">
-        <v>46</v>
-      </c>
       <c r="B49" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E49">
         <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H49"/>
       <c r="I49">
@@ -2730,24 +2598,21 @@
       </c>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50">
-        <v>47</v>
-      </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E50">
         <v>125</v>
       </c>
       <c r="F50"/>
       <c r="G50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H50"/>
       <c r="I50">
@@ -2755,26 +2620,23 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51">
-        <v>48</v>
-      </c>
       <c r="B51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E51">
         <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G51" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H51"/>
       <c r="I51">
@@ -2782,26 +2644,23 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52">
-        <v>49</v>
-      </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E52">
         <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H52"/>
       <c r="I52">
@@ -2809,24 +2668,21 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53">
-        <v>50</v>
-      </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
       <c r="F53"/>
       <c r="G53" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H53"/>
       <c r="I53">
@@ -2834,17 +2690,14 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54">
-        <v>51</v>
-      </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E54">
         <v>2003</v>
@@ -2853,7 +2706,7 @@
         <v>2003</v>
       </c>
       <c r="G54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H54"/>
       <c r="I54">
@@ -2861,26 +2714,23 @@
       </c>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55">
-        <v>52</v>
-      </c>
       <c r="B55" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E55">
         <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H55"/>
       <c r="I55">
@@ -2888,26 +2738,23 @@
       </c>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56">
-        <v>53</v>
-      </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E56">
         <v>17</v>
       </c>
       <c r="F56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H56"/>
       <c r="I56">
@@ -2915,26 +2762,23 @@
       </c>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57">
-        <v>54</v>
-      </c>
       <c r="B57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E57">
         <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H57"/>
       <c r="I57">
@@ -2942,26 +2786,23 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58">
-        <v>55</v>
-      </c>
       <c r="B58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E58">
         <v>9</v>
       </c>
       <c r="F58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H58"/>
       <c r="I58">
@@ -2969,26 +2810,23 @@
       </c>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59">
-        <v>56</v>
-      </c>
       <c r="B59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E59">
         <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H59"/>
       <c r="I59">
@@ -2996,26 +2834,23 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60">
-        <v>57</v>
-      </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D60" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E60">
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H60"/>
       <c r="I60">
@@ -3023,26 +2858,23 @@
       </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61">
-        <v>58</v>
-      </c>
       <c r="B61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E61">
         <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H61"/>
       <c r="I61">
@@ -3050,24 +2882,21 @@
       </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62">
-        <v>59</v>
-      </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E62">
         <v>117</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H62"/>
       <c r="I62">
@@ -3075,24 +2904,21 @@
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63">
-        <v>60</v>
-      </c>
       <c r="B63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E63">
         <v>119</v>
       </c>
       <c r="F63"/>
       <c r="G63" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H63"/>
       <c r="I63">
@@ -3100,26 +2926,23 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64">
-        <v>61</v>
-      </c>
       <c r="B64" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E64">
         <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H64"/>
       <c r="I64">
@@ -3127,26 +2950,23 @@
       </c>
     </row>
     <row r="65" spans="1:9">
-      <c r="A65">
-        <v>62</v>
-      </c>
       <c r="B65" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E65">
         <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G65" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H65"/>
       <c r="I65">
@@ -3154,26 +2974,23 @@
       </c>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66">
-        <v>63</v>
-      </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E66">
         <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G66" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H66"/>
       <c r="I66">
@@ -3181,26 +2998,23 @@
       </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67">
-        <v>64</v>
-      </c>
       <c r="B67" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E67">
         <v>62</v>
       </c>
       <c r="F67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G67" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H67"/>
       <c r="I67">
@@ -3208,17 +3022,14 @@
       </c>
     </row>
     <row r="68" spans="1:9">
-      <c r="A68">
-        <v>65</v>
-      </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D68" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E68">
         <v>2009</v>
@@ -3227,7 +3038,7 @@
         <v>2009</v>
       </c>
       <c r="G68" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H68"/>
       <c r="I68">
@@ -3235,26 +3046,23 @@
       </c>
     </row>
     <row r="69" spans="1:9">
-      <c r="A69">
-        <v>66</v>
-      </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E69">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G69" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H69"/>
       <c r="I69">
@@ -3262,51 +3070,45 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70">
-        <v>67</v>
-      </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D70" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E70">
         <v>116</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H70" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I70">
         <v>66595018200980</v>
       </c>
     </row>
     <row r="71" spans="1:9">
-      <c r="A71">
-        <v>68</v>
-      </c>
       <c r="B71" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D71" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E71">
         <v>121</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H71"/>
       <c r="I71">
@@ -3314,26 +3116,23 @@
       </c>
     </row>
     <row r="72" spans="1:9">
-      <c r="A72">
-        <v>69</v>
-      </c>
       <c r="B72" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E72">
         <v>98</v>
       </c>
       <c r="F72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H72"/>
       <c r="I72">
@@ -3341,17 +3140,14 @@
       </c>
     </row>
     <row r="73" spans="1:9">
-      <c r="A73">
-        <v>70</v>
-      </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E73">
         <v>2005</v>
@@ -3360,7 +3156,7 @@
         <v>2005</v>
       </c>
       <c r="G73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H73"/>
       <c r="I73">
@@ -3368,24 +3164,21 @@
       </c>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74">
-        <v>71</v>
-      </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E74">
         <v>129</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H74"/>
       <c r="I74">
@@ -3393,26 +3186,23 @@
       </c>
     </row>
     <row r="75" spans="1:9">
-      <c r="A75">
-        <v>72</v>
-      </c>
       <c r="B75" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E75">
         <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H75"/>
       <c r="I75">
@@ -3420,26 +3210,23 @@
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76">
-        <v>73</v>
-      </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E76">
         <v>15</v>
       </c>
       <c r="F76" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H76"/>
       <c r="I76">
@@ -3447,26 +3234,23 @@
       </c>
     </row>
     <row r="77" spans="1:9">
-      <c r="A77">
-        <v>74</v>
-      </c>
       <c r="B77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E77">
         <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H77"/>
       <c r="I77">
@@ -3474,26 +3258,23 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78">
-        <v>75</v>
-      </c>
       <c r="B78" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E78">
         <v>55</v>
       </c>
       <c r="F78" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H78"/>
       <c r="I78">
@@ -3501,26 +3282,23 @@
       </c>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79">
-        <v>76</v>
-      </c>
       <c r="B79" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E79">
         <v>67</v>
       </c>
       <c r="F79" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H79"/>
       <c r="I79">
@@ -3528,26 +3306,23 @@
       </c>
     </row>
     <row r="80" spans="1:9">
-      <c r="A80">
-        <v>77</v>
-      </c>
       <c r="B80" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E80">
         <v>24</v>
       </c>
       <c r="F80" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H80"/>
       <c r="I80">
@@ -3555,26 +3330,23 @@
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81">
-        <v>78</v>
-      </c>
       <c r="B81" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E81">
         <v>57</v>
       </c>
       <c r="F81" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H81"/>
       <c r="I81">
@@ -3582,26 +3354,23 @@
       </c>
     </row>
     <row r="82" spans="1:9">
-      <c r="A82">
-        <v>79</v>
-      </c>
       <c r="B82" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E82">
         <v>14</v>
       </c>
       <c r="F82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G82" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H82"/>
       <c r="I82">
@@ -3609,26 +3378,23 @@
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83">
-        <v>80</v>
-      </c>
       <c r="B83" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H83"/>
       <c r="I83">
@@ -3636,26 +3402,23 @@
       </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84">
-        <v>81</v>
-      </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E84">
         <v>68</v>
       </c>
       <c r="F84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H84"/>
       <c r="I84">
@@ -3663,26 +3426,23 @@
       </c>
     </row>
     <row r="85" spans="1:9">
-      <c r="A85">
-        <v>82</v>
-      </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E85">
         <v>77</v>
       </c>
       <c r="F85" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H85"/>
       <c r="I85">
@@ -3690,26 +3450,23 @@
       </c>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86">
-        <v>83</v>
-      </c>
       <c r="B86" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E86">
         <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H86"/>
       <c r="I86">
@@ -3717,26 +3474,23 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87">
-        <v>84</v>
-      </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E87">
         <v>78</v>
       </c>
       <c r="F87" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H87"/>
       <c r="I87">
@@ -3744,26 +3498,23 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88">
-        <v>85</v>
-      </c>
       <c r="B88" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E88">
         <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H88"/>
       <c r="I88">
@@ -3771,24 +3522,21 @@
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89">
-        <v>86</v>
-      </c>
       <c r="B89" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E89">
         <v>126</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H89"/>
       <c r="I89">
@@ -3796,26 +3544,23 @@
       </c>
     </row>
     <row r="90" spans="1:9">
-      <c r="A90">
-        <v>87</v>
-      </c>
       <c r="B90" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D90" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E90">
         <v>34</v>
       </c>
       <c r="F90" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G90" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H90"/>
       <c r="I90">
@@ -3823,26 +3568,23 @@
       </c>
     </row>
     <row r="91" spans="1:9">
-      <c r="A91">
-        <v>88</v>
-      </c>
       <c r="B91" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D91" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E91">
         <v>99</v>
       </c>
       <c r="F91" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G91" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H91"/>
       <c r="I91">
@@ -3850,26 +3592,23 @@
       </c>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92">
-        <v>89</v>
-      </c>
       <c r="B92" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C92" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D92" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E92">
         <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G92" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H92"/>
       <c r="I92">
@@ -3877,26 +3616,23 @@
       </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93">
-        <v>90</v>
-      </c>
       <c r="B93" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C93" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E93">
         <v>93</v>
       </c>
       <c r="F93" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G93" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H93"/>
       <c r="I93">
@@ -3904,26 +3640,23 @@
       </c>
     </row>
     <row r="94" spans="1:9">
-      <c r="A94">
-        <v>91</v>
-      </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C94" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D94" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E94">
         <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G94" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H94"/>
       <c r="I94">
@@ -3931,26 +3664,23 @@
       </c>
     </row>
     <row r="95" spans="1:9">
-      <c r="A95">
-        <v>92</v>
-      </c>
       <c r="B95" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C95" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D95" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E95">
         <v>99</v>
       </c>
       <c r="F95" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G95" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H95"/>
       <c r="I95">
@@ -3958,24 +3688,21 @@
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96">
-        <v>93</v>
-      </c>
       <c r="B96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C96" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D96" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E96">
         <v>126</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H96"/>
       <c r="I96">
@@ -3983,26 +3710,23 @@
       </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97">
-        <v>94</v>
-      </c>
       <c r="B97" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C97" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D97" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E97">
         <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G97" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H97"/>
       <c r="I97">
@@ -4010,26 +3734,23 @@
       </c>
     </row>
     <row r="98" spans="1:9">
-      <c r="A98">
-        <v>95</v>
-      </c>
       <c r="B98" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C98" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D98" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E98">
         <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G98" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H98"/>
       <c r="I98">
@@ -4037,24 +3758,21 @@
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99">
-        <v>96</v>
-      </c>
       <c r="B99" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C99" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D99" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E99">
         <v>100</v>
       </c>
       <c r="F99"/>
       <c r="G99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H99"/>
       <c r="I99">
@@ -4062,26 +3780,23 @@
       </c>
     </row>
     <row r="100" spans="1:9">
-      <c r="A100">
-        <v>97</v>
-      </c>
       <c r="B100" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C100" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D100" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E100">
         <v>26</v>
       </c>
       <c r="F100" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G100" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="H100"/>
       <c r="I100">
@@ -4089,26 +3804,23 @@
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101">
-        <v>98</v>
-      </c>
       <c r="B101" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D101" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E101">
         <v>93</v>
       </c>
       <c r="F101" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G101" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H101"/>
       <c r="I101">
@@ -4116,26 +3828,23 @@
       </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102">
-        <v>99</v>
-      </c>
       <c r="B102" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C102" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D102" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E102">
         <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G102" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H102"/>
       <c r="I102">
@@ -4143,26 +3852,23 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103">
-        <v>100</v>
-      </c>
       <c r="B103" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C103" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D103" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E103">
         <v>68</v>
       </c>
       <c r="F103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H103"/>
       <c r="I103">

--- a/assets/excel/Rekap Presensi scanlog.xlsx
+++ b/assets/excel/Rekap Presensi scanlog.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="370">
   <si>
     <t>REKAP PRESENSI</t>
   </si>
@@ -792,9 +792,6 @@
   </si>
   <si>
     <t>Ihsan Firdaus</t>
-  </si>
-  <si>
-    <t>Administrasi Personalia</t>
   </si>
   <si>
     <t>2022-06-20 06:46:23</t>
@@ -3086,29 +3083,27 @@
       <c r="G70" t="s">
         <v>258</v>
       </c>
-      <c r="H70" t="s">
-        <v>259</v>
-      </c>
+      <c r="H70"/>
       <c r="I70">
         <v>66595018200980</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="B71" t="s">
+        <v>259</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
         <v>260</v>
-      </c>
-      <c r="C71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>261</v>
       </c>
       <c r="E71">
         <v>121</v>
       </c>
       <c r="F71"/>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H71"/>
       <c r="I71">
@@ -3117,22 +3112,22 @@
     </row>
     <row r="72" spans="1:9">
       <c r="B72" t="s">
+        <v>262</v>
+      </c>
+      <c r="C72" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s">
         <v>263</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>264</v>
       </c>
       <c r="E72">
         <v>98</v>
       </c>
       <c r="F72" t="s">
+        <v>264</v>
+      </c>
+      <c r="G72" t="s">
         <v>265</v>
-      </c>
-      <c r="G72" t="s">
-        <v>266</v>
       </c>
       <c r="H72"/>
       <c r="I72">
@@ -3141,13 +3136,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="B73" t="s">
+        <v>266</v>
+      </c>
+      <c r="C73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s">
         <v>267</v>
-      </c>
-      <c r="C73" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s">
-        <v>268</v>
       </c>
       <c r="E73">
         <v>2005</v>
@@ -3156,7 +3151,7 @@
         <v>2005</v>
       </c>
       <c r="G73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H73"/>
       <c r="I73">
@@ -3165,20 +3160,20 @@
     </row>
     <row r="74" spans="1:9">
       <c r="B74" t="s">
+        <v>269</v>
+      </c>
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
         <v>270</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
-        <v>271</v>
       </c>
       <c r="E74">
         <v>129</v>
       </c>
       <c r="F74"/>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H74"/>
       <c r="I74">
@@ -3187,22 +3182,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="B75" t="s">
+        <v>272</v>
+      </c>
+      <c r="C75" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s">
         <v>273</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
-        <v>274</v>
       </c>
       <c r="E75">
         <v>42</v>
       </c>
       <c r="F75" t="s">
+        <v>274</v>
+      </c>
+      <c r="G75" t="s">
         <v>275</v>
-      </c>
-      <c r="G75" t="s">
-        <v>276</v>
       </c>
       <c r="H75"/>
       <c r="I75">
@@ -3211,22 +3206,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="B76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s">
         <v>277</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
-        <v>278</v>
       </c>
       <c r="E76">
         <v>15</v>
       </c>
       <c r="F76" t="s">
+        <v>278</v>
+      </c>
+      <c r="G76" t="s">
         <v>279</v>
-      </c>
-      <c r="G76" t="s">
-        <v>280</v>
       </c>
       <c r="H76"/>
       <c r="I76">
@@ -3235,22 +3230,22 @@
     </row>
     <row r="77" spans="1:9">
       <c r="B77" t="s">
+        <v>280</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" t="s">
         <v>281</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
-        <v>282</v>
       </c>
       <c r="E77">
         <v>18</v>
       </c>
       <c r="F77" t="s">
+        <v>282</v>
+      </c>
+      <c r="G77" t="s">
         <v>283</v>
-      </c>
-      <c r="G77" t="s">
-        <v>284</v>
       </c>
       <c r="H77"/>
       <c r="I77">
@@ -3259,22 +3254,22 @@
     </row>
     <row r="78" spans="1:9">
       <c r="B78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" t="s">
         <v>285</v>
-      </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
-        <v>286</v>
       </c>
       <c r="E78">
         <v>55</v>
       </c>
       <c r="F78" t="s">
+        <v>286</v>
+      </c>
+      <c r="G78" t="s">
         <v>287</v>
-      </c>
-      <c r="G78" t="s">
-        <v>288</v>
       </c>
       <c r="H78"/>
       <c r="I78">
@@ -3283,22 +3278,22 @@
     </row>
     <row r="79" spans="1:9">
       <c r="B79" t="s">
+        <v>288</v>
+      </c>
+      <c r="C79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s">
         <v>289</v>
-      </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
-        <v>290</v>
       </c>
       <c r="E79">
         <v>67</v>
       </c>
       <c r="F79" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" t="s">
         <v>291</v>
-      </c>
-      <c r="G79" t="s">
-        <v>292</v>
       </c>
       <c r="H79"/>
       <c r="I79">
@@ -3307,22 +3302,22 @@
     </row>
     <row r="80" spans="1:9">
       <c r="B80" t="s">
+        <v>292</v>
+      </c>
+      <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
         <v>293</v>
-      </c>
-      <c r="C80" t="s">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s">
-        <v>294</v>
       </c>
       <c r="E80">
         <v>24</v>
       </c>
       <c r="F80" t="s">
+        <v>294</v>
+      </c>
+      <c r="G80" t="s">
         <v>295</v>
-      </c>
-      <c r="G80" t="s">
-        <v>296</v>
       </c>
       <c r="H80"/>
       <c r="I80">
@@ -3331,22 +3326,22 @@
     </row>
     <row r="81" spans="1:9">
       <c r="B81" t="s">
+        <v>296</v>
+      </c>
+      <c r="C81" t="s">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s">
         <v>297</v>
-      </c>
-      <c r="C81" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s">
-        <v>298</v>
       </c>
       <c r="E81">
         <v>57</v>
       </c>
       <c r="F81" t="s">
+        <v>298</v>
+      </c>
+      <c r="G81" t="s">
         <v>299</v>
-      </c>
-      <c r="G81" t="s">
-        <v>300</v>
       </c>
       <c r="H81"/>
       <c r="I81">
@@ -3355,22 +3350,22 @@
     </row>
     <row r="82" spans="1:9">
       <c r="B82" t="s">
+        <v>300</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
         <v>301</v>
-      </c>
-      <c r="C82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s">
-        <v>302</v>
       </c>
       <c r="E82">
         <v>14</v>
       </c>
       <c r="F82" t="s">
+        <v>302</v>
+      </c>
+      <c r="G82" t="s">
         <v>303</v>
-      </c>
-      <c r="G82" t="s">
-        <v>304</v>
       </c>
       <c r="H82"/>
       <c r="I82">
@@ -3379,22 +3374,22 @@
     </row>
     <row r="83" spans="1:9">
       <c r="B83" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="s">
         <v>305</v>
-      </c>
-      <c r="C83" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" t="s">
-        <v>306</v>
       </c>
       <c r="E83">
         <v>82</v>
       </c>
       <c r="F83" t="s">
+        <v>306</v>
+      </c>
+      <c r="G83" t="s">
         <v>307</v>
-      </c>
-      <c r="G83" t="s">
-        <v>308</v>
       </c>
       <c r="H83"/>
       <c r="I83">
@@ -3403,22 +3398,22 @@
     </row>
     <row r="84" spans="1:9">
       <c r="B84" t="s">
+        <v>308</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
         <v>309</v>
-      </c>
-      <c r="C84" t="s">
-        <v>11</v>
-      </c>
-      <c r="D84" t="s">
-        <v>310</v>
       </c>
       <c r="E84">
         <v>68</v>
       </c>
       <c r="F84" t="s">
+        <v>310</v>
+      </c>
+      <c r="G84" t="s">
         <v>311</v>
-      </c>
-      <c r="G84" t="s">
-        <v>312</v>
       </c>
       <c r="H84"/>
       <c r="I84">
@@ -3427,22 +3422,22 @@
     </row>
     <row r="85" spans="1:9">
       <c r="B85" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
         <v>313</v>
-      </c>
-      <c r="C85" t="s">
-        <v>11</v>
-      </c>
-      <c r="D85" t="s">
-        <v>314</v>
       </c>
       <c r="E85">
         <v>77</v>
       </c>
       <c r="F85" t="s">
+        <v>314</v>
+      </c>
+      <c r="G85" t="s">
         <v>315</v>
-      </c>
-      <c r="G85" t="s">
-        <v>316</v>
       </c>
       <c r="H85"/>
       <c r="I85">
@@ -3451,22 +3446,22 @@
     </row>
     <row r="86" spans="1:9">
       <c r="B86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s">
         <v>317</v>
-      </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
-        <v>318</v>
       </c>
       <c r="E86">
         <v>48</v>
       </c>
       <c r="F86" t="s">
+        <v>318</v>
+      </c>
+      <c r="G86" t="s">
         <v>319</v>
-      </c>
-      <c r="G86" t="s">
-        <v>320</v>
       </c>
       <c r="H86"/>
       <c r="I86">
@@ -3475,22 +3470,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="B87" t="s">
+        <v>320</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s">
         <v>321</v>
-      </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
-        <v>322</v>
       </c>
       <c r="E87">
         <v>78</v>
       </c>
       <c r="F87" t="s">
+        <v>322</v>
+      </c>
+      <c r="G87" t="s">
         <v>323</v>
-      </c>
-      <c r="G87" t="s">
-        <v>324</v>
       </c>
       <c r="H87"/>
       <c r="I87">
@@ -3499,22 +3494,22 @@
     </row>
     <row r="88" spans="1:9">
       <c r="B88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s">
         <v>325</v>
-      </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s">
-        <v>326</v>
       </c>
       <c r="E88">
         <v>40</v>
       </c>
       <c r="F88" t="s">
+        <v>326</v>
+      </c>
+      <c r="G88" t="s">
         <v>327</v>
-      </c>
-      <c r="G88" t="s">
-        <v>328</v>
       </c>
       <c r="H88"/>
       <c r="I88">
@@ -3523,20 +3518,20 @@
     </row>
     <row r="89" spans="1:9">
       <c r="B89" t="s">
+        <v>328</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s">
         <v>329</v>
-      </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
-        <v>330</v>
       </c>
       <c r="E89">
         <v>126</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H89"/>
       <c r="I89">
@@ -3545,22 +3540,22 @@
     </row>
     <row r="90" spans="1:9">
       <c r="B90" t="s">
+        <v>331</v>
+      </c>
+      <c r="C90" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" t="s">
         <v>332</v>
-      </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s">
-        <v>333</v>
       </c>
       <c r="E90">
         <v>34</v>
       </c>
       <c r="F90" t="s">
+        <v>333</v>
+      </c>
+      <c r="G90" t="s">
         <v>334</v>
-      </c>
-      <c r="G90" t="s">
-        <v>335</v>
       </c>
       <c r="H90"/>
       <c r="I90">
@@ -3569,22 +3564,22 @@
     </row>
     <row r="91" spans="1:9">
       <c r="B91" t="s">
+        <v>335</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" t="s">
         <v>336</v>
-      </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>337</v>
       </c>
       <c r="E91">
         <v>99</v>
       </c>
       <c r="F91" t="s">
+        <v>337</v>
+      </c>
+      <c r="G91" t="s">
         <v>338</v>
-      </c>
-      <c r="G91" t="s">
-        <v>339</v>
       </c>
       <c r="H91"/>
       <c r="I91">
@@ -3593,22 +3588,22 @@
     </row>
     <row r="92" spans="1:9">
       <c r="B92" t="s">
+        <v>339</v>
+      </c>
+      <c r="C92" t="s">
         <v>340</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>341</v>
-      </c>
-      <c r="D92" t="s">
-        <v>342</v>
       </c>
       <c r="E92">
         <v>6</v>
       </c>
       <c r="F92" t="s">
+        <v>342</v>
+      </c>
+      <c r="G92" t="s">
         <v>343</v>
-      </c>
-      <c r="G92" t="s">
-        <v>344</v>
       </c>
       <c r="H92"/>
       <c r="I92">
@@ -3617,22 +3612,22 @@
     </row>
     <row r="93" spans="1:9">
       <c r="B93" t="s">
+        <v>344</v>
+      </c>
+      <c r="C93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D93" t="s">
         <v>345</v>
-      </c>
-      <c r="C93" t="s">
-        <v>341</v>
-      </c>
-      <c r="D93" t="s">
-        <v>346</v>
       </c>
       <c r="E93">
         <v>93</v>
       </c>
       <c r="F93" t="s">
+        <v>346</v>
+      </c>
+      <c r="G93" t="s">
         <v>347</v>
-      </c>
-      <c r="G93" t="s">
-        <v>348</v>
       </c>
       <c r="H93"/>
       <c r="I93">
@@ -3641,22 +3636,22 @@
     </row>
     <row r="94" spans="1:9">
       <c r="B94" t="s">
+        <v>348</v>
+      </c>
+      <c r="C94" t="s">
+        <v>340</v>
+      </c>
+      <c r="D94" t="s">
         <v>349</v>
-      </c>
-      <c r="C94" t="s">
-        <v>341</v>
-      </c>
-      <c r="D94" t="s">
-        <v>350</v>
       </c>
       <c r="E94">
         <v>43</v>
       </c>
       <c r="F94" t="s">
+        <v>350</v>
+      </c>
+      <c r="G94" t="s">
         <v>351</v>
-      </c>
-      <c r="G94" t="s">
-        <v>352</v>
       </c>
       <c r="H94"/>
       <c r="I94">
@@ -3665,22 +3660,22 @@
     </row>
     <row r="95" spans="1:9">
       <c r="B95" t="s">
+        <v>352</v>
+      </c>
+      <c r="C95" t="s">
+        <v>340</v>
+      </c>
+      <c r="D95" t="s">
         <v>353</v>
-      </c>
-      <c r="C95" t="s">
-        <v>341</v>
-      </c>
-      <c r="D95" t="s">
-        <v>354</v>
       </c>
       <c r="E95">
         <v>99</v>
       </c>
       <c r="F95" t="s">
+        <v>337</v>
+      </c>
+      <c r="G95" t="s">
         <v>338</v>
-      </c>
-      <c r="G95" t="s">
-        <v>339</v>
       </c>
       <c r="H95"/>
       <c r="I95">
@@ -3689,20 +3684,20 @@
     </row>
     <row r="96" spans="1:9">
       <c r="B96" t="s">
+        <v>354</v>
+      </c>
+      <c r="C96" t="s">
+        <v>340</v>
+      </c>
+      <c r="D96" t="s">
         <v>355</v>
-      </c>
-      <c r="C96" t="s">
-        <v>341</v>
-      </c>
-      <c r="D96" t="s">
-        <v>356</v>
       </c>
       <c r="E96">
         <v>126</v>
       </c>
       <c r="F96"/>
       <c r="G96" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H96"/>
       <c r="I96">
@@ -3711,22 +3706,22 @@
     </row>
     <row r="97" spans="1:9">
       <c r="B97" t="s">
+        <v>356</v>
+      </c>
+      <c r="C97" t="s">
+        <v>340</v>
+      </c>
+      <c r="D97" t="s">
         <v>357</v>
-      </c>
-      <c r="C97" t="s">
-        <v>341</v>
-      </c>
-      <c r="D97" t="s">
-        <v>358</v>
       </c>
       <c r="E97">
         <v>6</v>
       </c>
       <c r="F97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G97" t="s">
         <v>343</v>
-      </c>
-      <c r="G97" t="s">
-        <v>344</v>
       </c>
       <c r="H97"/>
       <c r="I97">
@@ -3735,13 +3730,13 @@
     </row>
     <row r="98" spans="1:9">
       <c r="B98" t="s">
+        <v>358</v>
+      </c>
+      <c r="C98" t="s">
+        <v>340</v>
+      </c>
+      <c r="D98" t="s">
         <v>359</v>
-      </c>
-      <c r="C98" t="s">
-        <v>341</v>
-      </c>
-      <c r="D98" t="s">
-        <v>360</v>
       </c>
       <c r="E98">
         <v>9</v>
@@ -3759,13 +3754,13 @@
     </row>
     <row r="99" spans="1:9">
       <c r="B99" t="s">
+        <v>360</v>
+      </c>
+      <c r="C99" t="s">
+        <v>340</v>
+      </c>
+      <c r="D99" t="s">
         <v>361</v>
-      </c>
-      <c r="C99" t="s">
-        <v>341</v>
-      </c>
-      <c r="D99" t="s">
-        <v>362</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -3781,13 +3776,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="B100" t="s">
+        <v>362</v>
+      </c>
+      <c r="C100" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" t="s">
         <v>363</v>
-      </c>
-      <c r="C100" t="s">
-        <v>341</v>
-      </c>
-      <c r="D100" t="s">
-        <v>364</v>
       </c>
       <c r="E100">
         <v>26</v>
@@ -3805,22 +3800,22 @@
     </row>
     <row r="101" spans="1:9">
       <c r="B101" t="s">
+        <v>364</v>
+      </c>
+      <c r="C101" t="s">
+        <v>340</v>
+      </c>
+      <c r="D101" t="s">
         <v>365</v>
-      </c>
-      <c r="C101" t="s">
-        <v>341</v>
-      </c>
-      <c r="D101" t="s">
-        <v>366</v>
       </c>
       <c r="E101">
         <v>93</v>
       </c>
       <c r="F101" t="s">
+        <v>346</v>
+      </c>
+      <c r="G101" t="s">
         <v>347</v>
-      </c>
-      <c r="G101" t="s">
-        <v>348</v>
       </c>
       <c r="H101"/>
       <c r="I101">
@@ -3829,22 +3824,22 @@
     </row>
     <row r="102" spans="1:9">
       <c r="B102" t="s">
+        <v>366</v>
+      </c>
+      <c r="C102" t="s">
+        <v>340</v>
+      </c>
+      <c r="D102" t="s">
         <v>367</v>
-      </c>
-      <c r="C102" t="s">
-        <v>341</v>
-      </c>
-      <c r="D102" t="s">
-        <v>368</v>
       </c>
       <c r="E102">
         <v>43</v>
       </c>
       <c r="F102" t="s">
+        <v>350</v>
+      </c>
+      <c r="G102" t="s">
         <v>351</v>
-      </c>
-      <c r="G102" t="s">
-        <v>352</v>
       </c>
       <c r="H102"/>
       <c r="I102">
@@ -3853,22 +3848,22 @@
     </row>
     <row r="103" spans="1:9">
       <c r="B103" t="s">
+        <v>368</v>
+      </c>
+      <c r="C103" t="s">
+        <v>340</v>
+      </c>
+      <c r="D103" t="s">
         <v>369</v>
-      </c>
-      <c r="C103" t="s">
-        <v>341</v>
-      </c>
-      <c r="D103" t="s">
-        <v>370</v>
       </c>
       <c r="E103">
         <v>68</v>
       </c>
       <c r="F103" t="s">
+        <v>310</v>
+      </c>
+      <c r="G103" t="s">
         <v>311</v>
-      </c>
-      <c r="G103" t="s">
-        <v>312</v>
       </c>
       <c r="H103"/>
       <c r="I103">
